--- a/S9000 Points Lists/Millhurst Alert S9000 DNP RTU Points List Rev B.xlsx
+++ b/S9000 Points Lists/Millhurst Alert S9000 DNP RTU Points List Rev B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wblankenship\Documents\NIA Work Documents\FE\Substations\Millhurst - JC\QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wblankenship\Documents\GitHub\SPT-Builder\S9000 Points Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09522CAD-2A28-4E68-A466-23C46AEEA039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77286F71-681D-465F-9569-B2E26FD5C0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="4" r:id="rId1"/>
@@ -3139,7 +3139,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3618,7 +3618,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F27" sqref="F27"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.81640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4937,7 +4937,7 @@
     <oddFooter>&amp;L&amp;8&amp;YFile: &amp;F&amp;C&amp;"Times New Roman,Regular"&amp;9Page &amp;P of &amp;N&amp;R&amp;8&amp;Y&amp;D  &amp;T</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B8:N41" numberStoredAsText="1"/>
+    <ignoredError sqref="B8:N17 B19:N41 B18 D18:N18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
